--- a/Code/Results/Cases/Case_8_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_16/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020742672944241</v>
+        <v>1.017065069268045</v>
       </c>
       <c r="D2">
-        <v>1.036119515405932</v>
+        <v>1.03249531292955</v>
       </c>
       <c r="E2">
-        <v>1.033181448385641</v>
+        <v>1.030238709301034</v>
       </c>
       <c r="F2">
-        <v>1.04133769552387</v>
+        <v>1.038956632707808</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.056477373694999</v>
+        <v>1.054179300298479</v>
       </c>
       <c r="J2">
-        <v>1.042320192626893</v>
+        <v>1.038747077738075</v>
       </c>
       <c r="K2">
-        <v>1.047097577385798</v>
+        <v>1.043519764406916</v>
       </c>
       <c r="L2">
-        <v>1.044197086162318</v>
+        <v>1.041292251399371</v>
       </c>
       <c r="M2">
-        <v>1.052249672810402</v>
+        <v>1.049898661747757</v>
       </c>
       <c r="N2">
-        <v>1.04380040685622</v>
+        <v>1.031322174871932</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.049924441197731</v>
+        <v>1.048063795162763</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044372334897055</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041851258486837</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023590279336412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024214688292012</v>
+        <v>1.020274851741576</v>
       </c>
       <c r="D3">
-        <v>1.038428378139246</v>
+        <v>1.034536175198967</v>
       </c>
       <c r="E3">
-        <v>1.035888631838533</v>
+        <v>1.032730314720903</v>
       </c>
       <c r="F3">
-        <v>1.043984414001656</v>
+        <v>1.041431514047933</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.057433381577232</v>
+        <v>1.054964064827281</v>
       </c>
       <c r="J3">
-        <v>1.044066318355027</v>
+        <v>1.040227659688103</v>
       </c>
       <c r="K3">
-        <v>1.048592083055772</v>
+        <v>1.044745435909446</v>
       </c>
       <c r="L3">
-        <v>1.046082014868845</v>
+        <v>1.042960856310417</v>
       </c>
       <c r="M3">
-        <v>1.054083815829044</v>
+        <v>1.051560356732037</v>
       </c>
       <c r="N3">
-        <v>1.045549012283172</v>
+        <v>1.032152272208661</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.051376022352735</v>
+        <v>1.049378900551662</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.045426419155344</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.04271497988246</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02382074416224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026424401805729</v>
+        <v>1.022319025900443</v>
       </c>
       <c r="D4">
-        <v>1.039901221336616</v>
+        <v>1.03583927604514</v>
       </c>
       <c r="E4">
-        <v>1.037617245955488</v>
+        <v>1.034322724301804</v>
       </c>
       <c r="F4">
-        <v>1.045675591561685</v>
+        <v>1.043014166011546</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.058033128229757</v>
+        <v>1.055455169213621</v>
       </c>
       <c r="J4">
-        <v>1.045175498370624</v>
+        <v>1.041168541067921</v>
       </c>
       <c r="K4">
-        <v>1.04954079211632</v>
+        <v>1.045523570327092</v>
       </c>
       <c r="L4">
-        <v>1.047281911188296</v>
+        <v>1.044023827123926</v>
       </c>
       <c r="M4">
-        <v>1.055252317941765</v>
+        <v>1.052619751493975</v>
       </c>
       <c r="N4">
-        <v>1.046659767461615</v>
+        <v>1.032679780352531</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.052300799177356</v>
+        <v>1.050217329840486</v>
       </c>
       <c r="Q4">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R4">
-        <v>1.046098115305084</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043266154582851</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023964757918037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027347760469281</v>
+        <v>1.023173350397523</v>
       </c>
       <c r="D5">
-        <v>1.04051954675772</v>
+        <v>1.036386799216149</v>
       </c>
       <c r="E5">
-        <v>1.038341140958604</v>
+        <v>1.034989788181976</v>
       </c>
       <c r="F5">
-        <v>1.04638359216848</v>
+        <v>1.0436768974659</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.058283079039217</v>
+        <v>1.055659735161875</v>
       </c>
       <c r="J5">
-        <v>1.045639876397289</v>
+        <v>1.04156260039619</v>
       </c>
       <c r="K5">
-        <v>1.049939373610188</v>
+        <v>1.045850937323022</v>
       </c>
       <c r="L5">
-        <v>1.047784270784064</v>
+        <v>1.044469003143213</v>
       </c>
       <c r="M5">
-        <v>1.055741279381404</v>
+        <v>1.053063160602117</v>
       </c>
       <c r="N5">
-        <v>1.047124804958343</v>
+        <v>1.032900710334371</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.052687773071614</v>
+        <v>1.050568253688967</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.046387050585364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043505464669054</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024025316083076</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027505942538663</v>
+        <v>1.023319518832061</v>
       </c>
       <c r="D6">
-        <v>1.040628055842835</v>
+        <v>1.036483113652356</v>
       </c>
       <c r="E6">
-        <v>1.038465516820146</v>
+        <v>1.035104264247672</v>
       </c>
       <c r="F6">
-        <v>1.046504651329161</v>
+        <v>1.043790076389836</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.058327545019207</v>
+        <v>1.055696351276779</v>
       </c>
       <c r="J6">
-        <v>1.045721126406461</v>
+        <v>1.041631623842176</v>
       </c>
       <c r="K6">
-        <v>1.050010971191989</v>
+        <v>1.045910270644327</v>
       </c>
       <c r="L6">
-        <v>1.047871460386923</v>
+        <v>1.044546234837284</v>
       </c>
       <c r="M6">
-        <v>1.055825576158955</v>
+        <v>1.053139530414074</v>
       </c>
       <c r="N6">
-        <v>1.047206170351848</v>
+        <v>1.032939408399256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.052754487212671</v>
+        <v>1.050628694443231</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046446344993308</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04355697625217</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024036902408849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026446558859221</v>
+        <v>1.022356717177673</v>
       </c>
       <c r="D7">
-        <v>1.039922835114347</v>
+        <v>1.035871949477528</v>
       </c>
       <c r="E7">
-        <v>1.037635389007793</v>
+        <v>1.034354132865869</v>
       </c>
       <c r="F7">
-        <v>1.045691711512646</v>
+        <v>1.043040607406101</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.058043872324984</v>
+        <v>1.055474100603484</v>
       </c>
       <c r="J7">
-        <v>1.045191274663949</v>
+        <v>1.041199435844814</v>
       </c>
       <c r="K7">
-        <v>1.049559321110974</v>
+        <v>1.045553019498101</v>
       </c>
       <c r="L7">
-        <v>1.047296998049418</v>
+        <v>1.044052018563934</v>
       </c>
       <c r="M7">
-        <v>1.055265436552751</v>
+        <v>1.05264306864222</v>
       </c>
       <c r="N7">
-        <v>1.046675566159086</v>
+        <v>1.032748848099568</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.05231118151191</v>
+        <v>1.05023578355528</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.046131157911055</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043308962187651</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.0239738978248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021936011480313</v>
+        <v>1.018222309016737</v>
       </c>
       <c r="D8">
-        <v>1.036920689761741</v>
+        <v>1.033244185813637</v>
       </c>
       <c r="E8">
-        <v>1.034111757918111</v>
+        <v>1.03114105986074</v>
       </c>
       <c r="F8">
-        <v>1.042244934161047</v>
+        <v>1.039840730978608</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.056813509405742</v>
+        <v>1.054485616736097</v>
       </c>
       <c r="J8">
-        <v>1.04292648329172</v>
+        <v>1.039314809508526</v>
       </c>
       <c r="K8">
-        <v>1.047622734539869</v>
+        <v>1.04399191285859</v>
       </c>
       <c r="L8">
-        <v>1.044848668495557</v>
+        <v>1.041915101848648</v>
       </c>
       <c r="M8">
-        <v>1.05288153310889</v>
+        <v>1.050506779253303</v>
       </c>
       <c r="N8">
-        <v>1.044407558523334</v>
+        <v>1.031797327246748</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.050424509663628</v>
+        <v>1.048545074257466</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.044766381910335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042210140462387</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023687708521119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013678398078533</v>
+        <v>1.010607299306484</v>
       </c>
       <c r="D9">
-        <v>1.03144218341358</v>
+        <v>1.028415557354746</v>
       </c>
       <c r="E9">
-        <v>1.027705740224565</v>
+        <v>1.025262905082738</v>
       </c>
       <c r="F9">
-        <v>1.035990655950062</v>
+        <v>1.034007312487514</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.054486343203701</v>
+        <v>1.05257321028254</v>
       </c>
       <c r="J9">
-        <v>1.038757214021999</v>
+        <v>1.035790967724474</v>
       </c>
       <c r="K9">
-        <v>1.044044929173497</v>
+        <v>1.041063841159156</v>
       </c>
       <c r="L9">
-        <v>1.040364753267226</v>
+        <v>1.037958987532236</v>
       </c>
       <c r="M9">
-        <v>1.048525602277643</v>
+        <v>1.046571729224983</v>
       </c>
       <c r="N9">
-        <v>1.040232368413028</v>
+        <v>1.029840586894656</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.046977121103031</v>
+        <v>1.045430773695285</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.042233524759534</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.04013638542705</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023123513508911</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.008020727666815</v>
+        <v>1.005475258793127</v>
       </c>
       <c r="D10">
-        <v>1.027718420201448</v>
+        <v>1.025197753932285</v>
       </c>
       <c r="E10">
-        <v>1.023384220804308</v>
+        <v>1.021374747081584</v>
       </c>
       <c r="F10">
-        <v>1.031823743775306</v>
+        <v>1.03018523527895</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.052869449607162</v>
+        <v>1.051283230860817</v>
       </c>
       <c r="J10">
-        <v>1.035919693589893</v>
+        <v>1.033473314453537</v>
       </c>
       <c r="K10">
-        <v>1.041604617427382</v>
+        <v>1.039126486192348</v>
       </c>
       <c r="L10">
-        <v>1.037343722907764</v>
+        <v>1.035368508379101</v>
       </c>
       <c r="M10">
-        <v>1.045641238643213</v>
+        <v>1.044030065883344</v>
       </c>
       <c r="N10">
-        <v>1.03739081837644</v>
+        <v>1.028772067592799</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.044745407582772</v>
+        <v>1.04347035712652</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.040524788828764</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.038784967466325</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02275258855004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.005995760257541</v>
+        <v>1.003721277466889</v>
       </c>
       <c r="D11">
-        <v>1.026450428980628</v>
+        <v>1.024167059951809</v>
       </c>
       <c r="E11">
-        <v>1.022121405318724</v>
+        <v>1.020336410321417</v>
       </c>
       <c r="F11">
-        <v>1.030977435999563</v>
+        <v>1.029518466507454</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.052439970438624</v>
+        <v>1.051013723243566</v>
       </c>
       <c r="J11">
-        <v>1.035121218448321</v>
+        <v>1.032940062205119</v>
       </c>
       <c r="K11">
-        <v>1.040890192657578</v>
+        <v>1.038647171972708</v>
       </c>
       <c r="L11">
-        <v>1.036637863875531</v>
+        <v>1.034884738736974</v>
       </c>
       <c r="M11">
-        <v>1.045337889234266</v>
+        <v>1.043904381346982</v>
       </c>
       <c r="N11">
-        <v>1.03659120930858</v>
+        <v>1.028913896663676</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.044938322255694</v>
+        <v>1.04380443521966</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.040052286552977</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038481958593655</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022709504358227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.005404109199133</v>
+        <v>1.003202942573214</v>
       </c>
       <c r="D12">
-        <v>1.026100004749874</v>
+        <v>1.023879090992254</v>
       </c>
       <c r="E12">
-        <v>1.021874932074551</v>
+        <v>1.020148839493972</v>
       </c>
       <c r="F12">
-        <v>1.03101352614728</v>
+        <v>1.029602983715448</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.052378862676293</v>
+        <v>1.05099577774636</v>
       </c>
       <c r="J12">
-        <v>1.034981505386048</v>
+        <v>1.032872363988609</v>
       </c>
       <c r="K12">
-        <v>1.040743689343485</v>
+        <v>1.038562671964263</v>
       </c>
       <c r="L12">
-        <v>1.036594709241884</v>
+        <v>1.034899939148157</v>
       </c>
       <c r="M12">
-        <v>1.045569736722822</v>
+        <v>1.044184194915064</v>
       </c>
       <c r="N12">
-        <v>1.036451297837735</v>
+        <v>1.029067489376629</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.045445858131076</v>
+        <v>1.044350277943088</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.039948705281623</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038422216118659</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022723109854342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.005889331515431</v>
+        <v>1.00360145676386</v>
       </c>
       <c r="D13">
-        <v>1.026448415933608</v>
+        <v>1.024150666366553</v>
       </c>
       <c r="E13">
-        <v>1.022407118817014</v>
+        <v>1.020606502420687</v>
       </c>
       <c r="F13">
-        <v>1.031751749254788</v>
+        <v>1.030284287308735</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.052611429598043</v>
+        <v>1.051178067576464</v>
       </c>
       <c r="J13">
-        <v>1.035354801255671</v>
+        <v>1.033162108120173</v>
       </c>
       <c r="K13">
-        <v>1.04104346794084</v>
+        <v>1.038786825009412</v>
       </c>
       <c r="L13">
-        <v>1.037074629703451</v>
+        <v>1.035306537978677</v>
       </c>
       <c r="M13">
-        <v>1.046252830931887</v>
+        <v>1.044811245556187</v>
       </c>
       <c r="N13">
-        <v>1.03682512383031</v>
+        <v>1.029187614512254</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.046260920167709</v>
+        <v>1.045121308295291</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.040158180150563</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03857797326888</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022786173129546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.006716671674649</v>
+        <v>1.004299184480093</v>
       </c>
       <c r="D14">
-        <v>1.027009985752251</v>
+        <v>1.024598288267553</v>
       </c>
       <c r="E14">
-        <v>1.023130834275786</v>
+        <v>1.021221244400412</v>
       </c>
       <c r="F14">
-        <v>1.03258475610738</v>
+        <v>1.031032447491186</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.05290705222054</v>
+        <v>1.051398138101758</v>
       </c>
       <c r="J14">
-        <v>1.035847933212217</v>
+        <v>1.033529599767693</v>
       </c>
       <c r="K14">
-        <v>1.041456222742881</v>
+        <v>1.039087143341235</v>
       </c>
       <c r="L14">
-        <v>1.03764574893074</v>
+        <v>1.035770215871651</v>
       </c>
       <c r="M14">
-        <v>1.046933465301743</v>
+        <v>1.045408176346331</v>
       </c>
       <c r="N14">
-        <v>1.037318956090796</v>
+        <v>1.029259320464131</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.046971314910202</v>
+        <v>1.045765694448721</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.040451422422932</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038791857372373</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022854337667941</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.007158575187132</v>
+        <v>1.004676147443716</v>
       </c>
       <c r="D15">
-        <v>1.027305904423114</v>
+        <v>1.024837186774545</v>
       </c>
       <c r="E15">
-        <v>1.02348641786404</v>
+        <v>1.021522819634926</v>
       </c>
       <c r="F15">
-        <v>1.032956753813894</v>
+        <v>1.0313620253252</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.053048213804462</v>
+        <v>1.051501306031297</v>
       </c>
       <c r="J15">
-        <v>1.036087245718796</v>
+        <v>1.033705758969841</v>
       </c>
       <c r="K15">
-        <v>1.041661437856587</v>
+        <v>1.039236019424622</v>
       </c>
       <c r="L15">
-        <v>1.037909056503077</v>
+        <v>1.035980210466637</v>
       </c>
       <c r="M15">
-        <v>1.047214183620295</v>
+        <v>1.045647000125988</v>
       </c>
       <c r="N15">
-        <v>1.037558608448585</v>
+        <v>1.029278593439153</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.047230540819718</v>
+        <v>1.045991838413136</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.040602344493136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038903524707401</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022884740849818</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.009460483819119</v>
+        <v>1.006670035452036</v>
       </c>
       <c r="D16">
-        <v>1.028816909230138</v>
+        <v>1.026075340709985</v>
       </c>
       <c r="E16">
-        <v>1.025218350600497</v>
+        <v>1.023001043918473</v>
       </c>
       <c r="F16">
-        <v>1.034610504454457</v>
+        <v>1.032814803515813</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.05370510752164</v>
+        <v>1.051976197176226</v>
       </c>
       <c r="J16">
-        <v>1.037228114615436</v>
+        <v>1.034545546171176</v>
       </c>
       <c r="K16">
-        <v>1.042649444810744</v>
+        <v>1.039953889676855</v>
       </c>
       <c r="L16">
-        <v>1.039111348074651</v>
+        <v>1.036931569306507</v>
       </c>
       <c r="M16">
-        <v>1.048346834748606</v>
+        <v>1.04658080366425</v>
       </c>
       <c r="N16">
-        <v>1.038701097509918</v>
+        <v>1.029348357151376</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.048087277592079</v>
+        <v>1.046691366509567</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.041304036269909</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039414530923188</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023013806462238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.010795363625654</v>
+        <v>1.007849967404599</v>
       </c>
       <c r="D17">
-        <v>1.029684403638166</v>
+        <v>1.0268024796046</v>
       </c>
       <c r="E17">
-        <v>1.02616970691453</v>
+        <v>1.023825378704919</v>
       </c>
       <c r="F17">
-        <v>1.035439065618372</v>
+        <v>1.033541958848958</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.054052179087312</v>
+        <v>1.052230025003076</v>
       </c>
       <c r="J17">
-        <v>1.037844920944642</v>
+        <v>1.035009789754079</v>
       </c>
       <c r="K17">
-        <v>1.043191234250858</v>
+        <v>1.040356336336643</v>
       </c>
       <c r="L17">
-        <v>1.03973393445842</v>
+        <v>1.037428172309506</v>
       </c>
       <c r="M17">
-        <v>1.04885299837562</v>
+        <v>1.046986370049979</v>
       </c>
       <c r="N17">
-        <v>1.03931877977486</v>
+        <v>1.029422356105195</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.048359057168499</v>
+        <v>1.046883486096552</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.041689666302745</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039701896033604</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023078806062675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.011407331459344</v>
+        <v>1.008407386385593</v>
       </c>
       <c r="D18">
-        <v>1.030059795654658</v>
+        <v>1.027126820784893</v>
       </c>
       <c r="E18">
-        <v>1.026506771302386</v>
+        <v>1.024118275341446</v>
       </c>
       <c r="F18">
-        <v>1.035582468856645</v>
+        <v>1.033648947897579</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.054151559416402</v>
+        <v>1.052295342509612</v>
       </c>
       <c r="J18">
-        <v>1.038046204096895</v>
+        <v>1.035156492688473</v>
       </c>
       <c r="K18">
-        <v>1.04337907491527</v>
+        <v>1.040493180836686</v>
       </c>
       <c r="L18">
-        <v>1.03988312874533</v>
+        <v>1.037533289081656</v>
       </c>
       <c r="M18">
-        <v>1.048814023526455</v>
+        <v>1.046911078882179</v>
       </c>
       <c r="N18">
-        <v>1.039520348772277</v>
+        <v>1.029422991497334</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.048092073584938</v>
+        <v>1.046587484353294</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.041810922042557</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.039785941533327</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023084518035552</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.011371582989544</v>
+        <v>1.008394884862691</v>
       </c>
       <c r="D19">
-        <v>1.030003022302405</v>
+        <v>1.02709064647316</v>
       </c>
       <c r="E19">
-        <v>1.026288428619107</v>
+        <v>1.023919840788843</v>
       </c>
       <c r="F19">
-        <v>1.035101144349629</v>
+        <v>1.033181509612176</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.054035003945512</v>
+        <v>1.05219159418926</v>
       </c>
       <c r="J19">
-        <v>1.03787960545092</v>
+        <v>1.035011656156823</v>
       </c>
       <c r="K19">
-        <v>1.043261331535204</v>
+        <v>1.040395462280967</v>
       </c>
       <c r="L19">
-        <v>1.039606114198346</v>
+        <v>1.037275676040245</v>
       </c>
       <c r="M19">
-        <v>1.048278849830549</v>
+        <v>1.046389445907898</v>
       </c>
       <c r="N19">
-        <v>1.039353513537115</v>
+        <v>1.029318802574326</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.04734573391422</v>
+        <v>1.045851368935658</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.041734023402016</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.03972383636659</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023039285559408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.009511480465294</v>
+        <v>1.006774999192682</v>
       </c>
       <c r="D20">
-        <v>1.028714750789159</v>
+        <v>1.026022822389148</v>
       </c>
       <c r="E20">
-        <v>1.024524647106192</v>
+        <v>1.022355986540781</v>
       </c>
       <c r="F20">
-        <v>1.032921257772827</v>
+        <v>1.031156923578786</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.053310523551761</v>
+        <v>1.051610655871479</v>
       </c>
       <c r="J20">
-        <v>1.036680610966763</v>
+        <v>1.034047231181431</v>
       </c>
       <c r="K20">
-        <v>1.042270803001586</v>
+        <v>1.039623021579469</v>
       </c>
       <c r="L20">
-        <v>1.038149545317838</v>
+        <v>1.036016802557199</v>
       </c>
       <c r="M20">
-        <v>1.046408915762701</v>
+        <v>1.044673180877507</v>
       </c>
       <c r="N20">
-        <v>1.038152816343264</v>
+        <v>1.028900122062573</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.045342468558763</v>
+        <v>1.043968825761207</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.041037583264341</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039181983256489</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022847341145634</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.005177303239539</v>
+        <v>1.003086933346242</v>
       </c>
       <c r="D21">
-        <v>1.02585553249091</v>
+        <v>1.023730024462653</v>
       </c>
       <c r="E21">
-        <v>1.021172330854245</v>
+        <v>1.019545018301288</v>
       </c>
       <c r="F21">
-        <v>1.029619481674909</v>
+        <v>1.028281422768291</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.052024832544704</v>
+        <v>1.050703631429105</v>
       </c>
       <c r="J21">
-        <v>1.034460147093123</v>
+        <v>1.032456155721374</v>
       </c>
       <c r="K21">
-        <v>1.040363079945582</v>
+        <v>1.038275351611874</v>
       </c>
       <c r="L21">
-        <v>1.03576339040371</v>
+        <v>1.034165329967429</v>
       </c>
       <c r="M21">
-        <v>1.044060623005399</v>
+        <v>1.042746098832759</v>
       </c>
       <c r="N21">
-        <v>1.035929199156232</v>
+        <v>1.028812224215839</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.043443412263482</v>
+        <v>1.042403057999047</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.039691973706231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.03823267050669</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02260409844939</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.002421341010114</v>
+        <v>1.000722864216435</v>
       </c>
       <c r="D22">
-        <v>1.024039546239705</v>
+        <v>1.02226012837899</v>
       </c>
       <c r="E22">
-        <v>1.019064489732873</v>
+        <v>1.017766404056205</v>
       </c>
       <c r="F22">
-        <v>1.027569750770693</v>
+        <v>1.026490784874487</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.051204148826853</v>
+        <v>1.050112903437552</v>
       </c>
       <c r="J22">
-        <v>1.033055625497776</v>
+        <v>1.031431362657731</v>
       </c>
       <c r="K22">
-        <v>1.039149358217543</v>
+        <v>1.037403140301133</v>
       </c>
       <c r="L22">
-        <v>1.034267505415643</v>
+        <v>1.032993934252188</v>
       </c>
       <c r="M22">
-        <v>1.04261414060894</v>
+        <v>1.041555107977447</v>
       </c>
       <c r="N22">
-        <v>1.034522682979119</v>
+        <v>1.028706863456241</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.042298622179701</v>
+        <v>1.041460470457955</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.038820411448437</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037601245323779</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022444167797999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.003878223579287</v>
+        <v>1.001949569664352</v>
       </c>
       <c r="D23">
-        <v>1.024993206798429</v>
+        <v>1.023013695962563</v>
       </c>
       <c r="E23">
-        <v>1.020177056277545</v>
+        <v>1.018684818448709</v>
       </c>
       <c r="F23">
-        <v>1.02865304689814</v>
+        <v>1.027421629876158</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.051634944533396</v>
+        <v>1.050409895465849</v>
       </c>
       <c r="J23">
-        <v>1.033794197939956</v>
+        <v>1.031947379332874</v>
       </c>
       <c r="K23">
-        <v>1.03978355071139</v>
+        <v>1.037840044315937</v>
       </c>
       <c r="L23">
-        <v>1.035055316291736</v>
+        <v>1.033590538255807</v>
       </c>
       <c r="M23">
-        <v>1.04337729781526</v>
+        <v>1.04216805060972</v>
       </c>
       <c r="N23">
-        <v>1.035262304278883</v>
+        <v>1.028678128381204</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.04290260818687</v>
+        <v>1.041945572646942</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.039259233622018</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037899625270178</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022519827970026</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.009522624844464</v>
+        <v>1.006787487713143</v>
       </c>
       <c r="D24">
-        <v>1.02870750817569</v>
+        <v>1.026016451469017</v>
       </c>
       <c r="E24">
-        <v>1.024504711611045</v>
+        <v>1.022337295986277</v>
       </c>
       <c r="F24">
-        <v>1.032867457184005</v>
+        <v>1.03110385361275</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.053292508949738</v>
+        <v>1.051593195429616</v>
       </c>
       <c r="J24">
-        <v>1.036658973409815</v>
+        <v>1.034026739315251</v>
       </c>
       <c r="K24">
-        <v>1.042248569946904</v>
+        <v>1.039601590219173</v>
       </c>
       <c r="L24">
-        <v>1.038114741930936</v>
+        <v>1.035983179262055</v>
       </c>
       <c r="M24">
-        <v>1.046340963033497</v>
+        <v>1.044605914204197</v>
       </c>
       <c r="N24">
-        <v>1.038131148058502</v>
+        <v>1.028880753223325</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.04524813894263</v>
+        <v>1.043874971805983</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.040994647132062</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039136896506358</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02283705962758</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.015865106552589</v>
+        <v>1.012599293414266</v>
       </c>
       <c r="D25">
-        <v>1.032899770081604</v>
+        <v>1.029683587738241</v>
       </c>
       <c r="E25">
-        <v>1.029397954908206</v>
+        <v>1.026794520817944</v>
       </c>
       <c r="F25">
-        <v>1.037639037740497</v>
+        <v>1.035527985146007</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.055117329865924</v>
+        <v>1.053081824323104</v>
       </c>
       <c r="J25">
-        <v>1.039870093967418</v>
+        <v>1.036709955534458</v>
       </c>
       <c r="K25">
-        <v>1.045007958643148</v>
+        <v>1.041837939534997</v>
       </c>
       <c r="L25">
-        <v>1.041556424183871</v>
+        <v>1.038990653216154</v>
       </c>
       <c r="M25">
-        <v>1.049679860872374</v>
+        <v>1.047598719114423</v>
       </c>
       <c r="N25">
-        <v>1.041346828775618</v>
+        <v>1.030290356242826</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.047890630712213</v>
+        <v>1.046243561374937</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.042942808326045</v>
+        <v>1.040714943794725</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023274957292195</v>
       </c>
     </row>
   </sheetData>
